--- a/ol-handback/Microsoft/openpublishing-test/master/handback-status.xlsx
+++ b/ol-handback/Microsoft/openpublishing-test/master/handback-status.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>Path And Name</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>index.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\index.md</t>
+  </si>
+  <si>
     <t>.md</t>
   </si>
   <si>
@@ -49,87 +55,177 @@
     <t>users-manual-content.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\users-manual-content.md</t>
+  </si>
+  <si>
     <t>2016-05-27 07:53:09</t>
   </si>
   <si>
+    <t>large.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\conceptual\large.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\index.md</t>
+  </si>
+  <si>
     <t>2016-05-26 05:54:32</t>
   </si>
   <si>
     <t>TOC.md</t>
   </si>
   <si>
+    <t>openpublishing\test\TOC.md</t>
+  </si>
+  <si>
     <t>2016-05-26 14:53:19</t>
   </si>
   <si>
     <t>control-panel.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\control-panel.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-06-27 09:43:53</t>
+  </si>
+  <si>
     <t>multiple-topics-bar.experimental.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\multiple-topics-bar.experimental.md</t>
+  </si>
+  <si>
     <t>multiple-topics-bar.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\multiple-topics-bar.md</t>
+  </si>
+  <si>
     <t>multiple-topics-baz.experimental.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\multiple-topics-baz.experimental.md</t>
+  </si>
+  <si>
     <t>multiple-topics-baz.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\multiple-topics-baz.md</t>
+  </si>
+  <si>
     <t>multiple-topics-foo.experimental.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\multiple-topics-foo.experimental.md</t>
+  </si>
+  <si>
     <t>multiple-topics-foo.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\multiple-topics-foo.md</t>
+  </si>
+  <si>
     <t>single-topic.experimental.md</t>
   </si>
   <si>
+    <t>openpublishing\test\abtesting\single-topic.experimental.md</t>
+  </si>
+  <si>
     <t>single-topic.md</t>
   </si>
   <si>
-    <t>large.md</t>
+    <t>openpublishing\test\abtesting\single-topic.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\conceptual\index.md</t>
   </si>
   <si>
     <t>small.md</t>
   </si>
   <si>
+    <t>openpublishing\test\conceptual\small.md</t>
+  </si>
+  <si>
     <t>ui-components.md</t>
   </si>
   <si>
-    <t>2016-05-31 03:09:52</t>
+    <t>openpublishing\test\conceptual\ui-components.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\hubpage\index.md</t>
   </si>
   <si>
     <t>AbsoluteUrl.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\AbsoluteUrl.md</t>
+  </si>
+  <si>
     <t>AbsoluteUrlWithAAD.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\AbsoluteUrlWithAAD.md</t>
+  </si>
+  <si>
     <t>EmptyRelativeUrl.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\EmptyRelativeUrl.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\redirectUrl\index.md</t>
+  </si>
+  <si>
     <t>InvalidAbsoluteUrl.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\InvalidAbsoluteUrl.md</t>
+  </si>
+  <si>
     <t>InvalidRelativeUrl.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\InvalidRelativeUrl.md</t>
+  </si>
+  <si>
     <t>RelativePage.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\RelativePage.md</t>
+  </si>
+  <si>
     <t>RelativeUrl.md</t>
   </si>
   <si>
+    <t>openpublishing\test\redirectUrl\RelativeUrl.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\reference\index.md</t>
+  </si>
+  <si>
     <t>contacts-operations.md</t>
   </si>
   <si>
+    <t>openpublishing\test\restapi\contacts-operations.md</t>
+  </si>
+  <si>
     <t>entity-and-complex-type-reference.md</t>
   </si>
   <si>
+    <t>openpublishing\test\restapi\entity-and-complex-type-reference.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\restapi\index.md</t>
+  </si>
+  <si>
+    <t>openpublishing\test\restapi\TOC.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -202,6 +298,12 @@
     <t>2016-05-27 07:53:03</t>
   </si>
   <si>
+    <t>openpublishing\test\conceptual</t>
+  </si>
+  <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
+  </si>
+  <si>
     <t>openpublishing\test</t>
   </si>
   <si>
@@ -220,6 +322,9 @@
     <t>control-panel.611c914fc083e64635d4fcb7c78760cde4272425.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-06-27 09:43:46</t>
+  </si>
+  <si>
     <t>multiple-topics-bar.experimental.9bbc3fdd6b4faf3f3f17c583f2e2c5aa7ca6d14d.de-de.xlf</t>
   </si>
   <si>
@@ -244,15 +349,9 @@
     <t>single-topic.30dfa20aeacb6673b5dea3ff084ef31f9a7819e0.de-de.xlf</t>
   </si>
   <si>
-    <t>openpublishing\test\conceptual</t>
-  </si>
-  <si>
     <t>index.c9c0369d0b155b081723894540fda2e788d91baf.de-de.xlf</t>
   </si>
   <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.de-de.xlf</t>
-  </si>
-  <si>
     <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.de-de.xlf</t>
   </si>
   <si>
@@ -265,9 +364,6 @@
     <t>index.e680af2eb257e7b4b907a3e7e3364826a5f7ad25.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-05-31 03:09:49</t>
-  </si>
-  <si>
     <t>openpublishing\test\redirectUrl</t>
   </si>
   <si>
@@ -325,6 +421,9 @@
     <t>users-manual-content.b4aebd733aa89fe887cf8b8aa2ee374538ab72b8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>index.9373ed93305bd176b9bcf02dce8ecdcbe15066e1.zh-cn.xlf</t>
   </si>
   <si>
@@ -359,9 +458,6 @@
   </si>
   <si>
     <t>index.c9c0369d0b155b081723894540fda2e788d91baf.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>large.1ada80b65df96198694194b2dad9063e0b0ff35a.zh-cn.xlf</t>
   </si>
   <si>
     <t>small.7784cb202c2cbbbca6538cb14d51a50e91054011.zh-cn.xlf</t>
@@ -514,15 +610,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F32" headerRowCount="1">
-  <autoFilter ref="A1:F32"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G32" headerRowCount="1">
+  <autoFilter ref="A1:G32"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="Extension"/>
-    <tableColumn id="3" name="Publish URL"/>
-    <tableColumn id="4" name="de-de"/>
-    <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="Latest Handoff Date"/>
+    <tableColumn id="2" name="Path And Name"/>
+    <tableColumn id="3" name="Extension"/>
+    <tableColumn id="4" name="Publish URL"/>
+    <tableColumn id="5" name="de-de"/>
+    <tableColumn id="6" name="zh-cn"/>
+    <tableColumn id="7" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,18 +627,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.7119859967913" customWidth="1"/>
-    <col min="2" max="2" width="12.1930160522461" customWidth="1"/>
-    <col min="3" max="3" width="13.9639423915318" customWidth="1"/>
-    <col min="4" max="4" width="33.4602203369141" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
+    <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
     <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="21.2031533377511" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="7" max="7" width="21.2031533377511" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -563,567 +661,663 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>16</v>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="users-manual-content.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="index.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="TOC.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="control-panel.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="multiple-topics-bar.experimental.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="multiple-topics-bar.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="multiple-topics-baz.experimental.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="multiple-topics-baz.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="multiple-topics-foo.experimental.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="multiple-topics-foo.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="single-topic.experimental.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="single-topic.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="index.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="large.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="small.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="ui-components.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="index.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="AbsoluteUrl.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="AbsoluteUrlWithAAD.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="EmptyRelativeUrl.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="index.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="InvalidAbsoluteUrl.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="InvalidRelativeUrl.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="RelativePage.md" r:id="rId26"/>
-    <hyperlink ref="A27" display="RelativeUrl.md" r:id="rId27"/>
-    <hyperlink ref="A28" display="index.md" r:id="rId28"/>
-    <hyperlink ref="A29" display="contacts-operations.md" r:id="rId29"/>
-    <hyperlink ref="A30" display="entity-and-complex-type-reference.md" r:id="rId30"/>
-    <hyperlink ref="A31" display="index.md" r:id="rId31"/>
-    <hyperlink ref="A32" display="TOC.md" r:id="rId32"/>
+    <hyperlink ref="B2" display="openpublishing\test\abtesting\index.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="openpublishing\test\abtesting\users-manual-content.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="openpublishing\test\conceptual\large.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="openpublishing\test\index.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="openpublishing\test\TOC.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="openpublishing\test\abtesting\control-panel.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="openpublishing\test\abtesting\multiple-topics-bar.experimental.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="openpublishing\test\abtesting\multiple-topics-bar.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="openpublishing\test\abtesting\multiple-topics-baz.experimental.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="openpublishing\test\abtesting\multiple-topics-baz.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="openpublishing\test\abtesting\multiple-topics-foo.experimental.md" r:id="rId12"/>
+    <hyperlink ref="B13" display="openpublishing\test\abtesting\multiple-topics-foo.md" r:id="rId13"/>
+    <hyperlink ref="B14" display="openpublishing\test\abtesting\single-topic.experimental.md" r:id="rId14"/>
+    <hyperlink ref="B15" display="openpublishing\test\abtesting\single-topic.md" r:id="rId15"/>
+    <hyperlink ref="B16" display="openpublishing\test\conceptual\index.md" r:id="rId16"/>
+    <hyperlink ref="B17" display="openpublishing\test\conceptual\small.md" r:id="rId17"/>
+    <hyperlink ref="B18" display="openpublishing\test\conceptual\ui-components.md" r:id="rId18"/>
+    <hyperlink ref="B19" display="openpublishing\test\hubpage\index.md" r:id="rId19"/>
+    <hyperlink ref="B20" display="openpublishing\test\redirectUrl\AbsoluteUrl.md" r:id="rId20"/>
+    <hyperlink ref="B21" display="openpublishing\test\redirectUrl\AbsoluteUrlWithAAD.md" r:id="rId21"/>
+    <hyperlink ref="B22" display="openpublishing\test\redirectUrl\EmptyRelativeUrl.md" r:id="rId22"/>
+    <hyperlink ref="B23" display="openpublishing\test\redirectUrl\index.md" r:id="rId23"/>
+    <hyperlink ref="B24" display="openpublishing\test\redirectUrl\InvalidAbsoluteUrl.md" r:id="rId24"/>
+    <hyperlink ref="B25" display="openpublishing\test\redirectUrl\InvalidRelativeUrl.md" r:id="rId25"/>
+    <hyperlink ref="B26" display="openpublishing\test\redirectUrl\RelativePage.md" r:id="rId26"/>
+    <hyperlink ref="B27" display="openpublishing\test\redirectUrl\RelativeUrl.md" r:id="rId27"/>
+    <hyperlink ref="B28" display="openpublishing\test\reference\index.md" r:id="rId28"/>
+    <hyperlink ref="B29" display="openpublishing\test\restapi\contacts-operations.md" r:id="rId29"/>
+    <hyperlink ref="B30" display="openpublishing\test\restapi\entity-and-complex-type-reference.md" r:id="rId30"/>
+    <hyperlink ref="B31" display="openpublishing\test\restapi\index.md" r:id="rId31"/>
+    <hyperlink ref="B32" display="openpublishing\test\restapi\TOC.md" r:id="rId32"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1159,1506 +1353,1506 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I19" s="0" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="K24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I31" s="0" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2667,32 +2861,32 @@
     <hyperlink ref="H2" display="index.md" r:id="rId3"/>
     <hyperlink ref="A3" display="users-manual-content.md" r:id="rId4"/>
     <hyperlink ref="H3" display="users-manual-content.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="index.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="index.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="TOC.md" r:id="rId8"/>
-    <hyperlink ref="H5" display="TOC.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="control-panel.md" r:id="rId10"/>
-    <hyperlink ref="H6" display="control-panel.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="multiple-topics-bar.experimental.md" r:id="rId12"/>
-    <hyperlink ref="H7" display="multiple-topics-bar.experimental.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="multiple-topics-bar.md" r:id="rId14"/>
-    <hyperlink ref="H8" display="multiple-topics-bar.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="multiple-topics-baz.experimental.md" r:id="rId16"/>
-    <hyperlink ref="H9" display="multiple-topics-baz.experimental.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="multiple-topics-baz.md" r:id="rId18"/>
-    <hyperlink ref="H10" display="multiple-topics-baz.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="multiple-topics-foo.experimental.md" r:id="rId20"/>
-    <hyperlink ref="H11" display="multiple-topics-foo.experimental.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="multiple-topics-foo.md" r:id="rId22"/>
-    <hyperlink ref="H12" display="multiple-topics-foo.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="single-topic.experimental.md" r:id="rId24"/>
-    <hyperlink ref="H13" display="single-topic.experimental.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="single-topic.md" r:id="rId26"/>
-    <hyperlink ref="H14" display="single-topic.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="index.md" r:id="rId28"/>
-    <hyperlink ref="H15" display="index.md" r:id="rId29"/>
-    <hyperlink ref="A16" display="large.md" r:id="rId30"/>
-    <hyperlink ref="H16" display="large.md" r:id="rId31"/>
+    <hyperlink ref="A4" display="large.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="large.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="index.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="index.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="TOC.md" r:id="rId10"/>
+    <hyperlink ref="H6" display="TOC.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="control-panel.md" r:id="rId12"/>
+    <hyperlink ref="H7" display="control-panel.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="multiple-topics-bar.experimental.md" r:id="rId14"/>
+    <hyperlink ref="H8" display="multiple-topics-bar.experimental.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="multiple-topics-bar.md" r:id="rId16"/>
+    <hyperlink ref="H9" display="multiple-topics-bar.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="multiple-topics-baz.experimental.md" r:id="rId18"/>
+    <hyperlink ref="H10" display="multiple-topics-baz.experimental.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="multiple-topics-baz.md" r:id="rId20"/>
+    <hyperlink ref="H11" display="multiple-topics-baz.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="multiple-topics-foo.experimental.md" r:id="rId22"/>
+    <hyperlink ref="H12" display="multiple-topics-foo.experimental.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId24"/>
+    <hyperlink ref="H13" display="multiple-topics-foo.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId26"/>
+    <hyperlink ref="H14" display="single-topic.experimental.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="single-topic.md" r:id="rId28"/>
+    <hyperlink ref="H15" display="single-topic.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="index.md" r:id="rId30"/>
+    <hyperlink ref="H16" display="index.md" r:id="rId31"/>
     <hyperlink ref="A17" display="small.md" r:id="rId32"/>
     <hyperlink ref="H17" display="small.md" r:id="rId33"/>
     <hyperlink ref="A18" display="ui-components.md" r:id="rId34"/>
@@ -2760,1506 +2954,1506 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I16" s="0" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I19" s="0" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I23" s="0" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I28" s="0" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I31" s="0" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4268,32 +4462,32 @@
     <hyperlink ref="H2" display="index.md" r:id="rId3"/>
     <hyperlink ref="A3" display="users-manual-content.md" r:id="rId4"/>
     <hyperlink ref="H3" display="users-manual-content.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="index.md" r:id="rId6"/>
-    <hyperlink ref="H4" display="index.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="TOC.md" r:id="rId8"/>
-    <hyperlink ref="H5" display="TOC.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="control-panel.md" r:id="rId10"/>
-    <hyperlink ref="H6" display="control-panel.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="multiple-topics-bar.experimental.md" r:id="rId12"/>
-    <hyperlink ref="H7" display="multiple-topics-bar.experimental.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="multiple-topics-bar.md" r:id="rId14"/>
-    <hyperlink ref="H8" display="multiple-topics-bar.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="multiple-topics-baz.experimental.md" r:id="rId16"/>
-    <hyperlink ref="H9" display="multiple-topics-baz.experimental.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="multiple-topics-baz.md" r:id="rId18"/>
-    <hyperlink ref="H10" display="multiple-topics-baz.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="multiple-topics-foo.experimental.md" r:id="rId20"/>
-    <hyperlink ref="H11" display="multiple-topics-foo.experimental.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="multiple-topics-foo.md" r:id="rId22"/>
-    <hyperlink ref="H12" display="multiple-topics-foo.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="single-topic.experimental.md" r:id="rId24"/>
-    <hyperlink ref="H13" display="single-topic.experimental.md" r:id="rId25"/>
-    <hyperlink ref="A14" display="single-topic.md" r:id="rId26"/>
-    <hyperlink ref="H14" display="single-topic.md" r:id="rId27"/>
-    <hyperlink ref="A15" display="index.md" r:id="rId28"/>
-    <hyperlink ref="H15" display="index.md" r:id="rId29"/>
-    <hyperlink ref="A16" display="large.md" r:id="rId30"/>
-    <hyperlink ref="H16" display="large.md" r:id="rId31"/>
+    <hyperlink ref="A4" display="large.md" r:id="rId6"/>
+    <hyperlink ref="H4" display="large.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="index.md" r:id="rId8"/>
+    <hyperlink ref="H5" display="index.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="TOC.md" r:id="rId10"/>
+    <hyperlink ref="H6" display="TOC.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="control-panel.md" r:id="rId12"/>
+    <hyperlink ref="H7" display="control-panel.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="multiple-topics-bar.experimental.md" r:id="rId14"/>
+    <hyperlink ref="H8" display="multiple-topics-bar.experimental.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="multiple-topics-bar.md" r:id="rId16"/>
+    <hyperlink ref="H9" display="multiple-topics-bar.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="multiple-topics-baz.experimental.md" r:id="rId18"/>
+    <hyperlink ref="H10" display="multiple-topics-baz.experimental.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="multiple-topics-baz.md" r:id="rId20"/>
+    <hyperlink ref="H11" display="multiple-topics-baz.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="multiple-topics-foo.experimental.md" r:id="rId22"/>
+    <hyperlink ref="H12" display="multiple-topics-foo.experimental.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="multiple-topics-foo.md" r:id="rId24"/>
+    <hyperlink ref="H13" display="multiple-topics-foo.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="single-topic.experimental.md" r:id="rId26"/>
+    <hyperlink ref="H14" display="single-topic.experimental.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="single-topic.md" r:id="rId28"/>
+    <hyperlink ref="H15" display="single-topic.md" r:id="rId29"/>
+    <hyperlink ref="A16" display="index.md" r:id="rId30"/>
+    <hyperlink ref="H16" display="index.md" r:id="rId31"/>
     <hyperlink ref="A17" display="small.md" r:id="rId32"/>
     <hyperlink ref="H17" display="small.md" r:id="rId33"/>
     <hyperlink ref="A18" display="ui-components.md" r:id="rId34"/>
